--- a/output_data/2_midi.xlsx
+++ b/output_data/2_midi.xlsx
@@ -13,7 +13,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>time_stamp</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>is_on</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>time_stamp</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>is_on</t>
+  </si>
+  <si>
+    <t>ipi</t>
+  </si>
   <si>
     <t>run_num</t>
   </si>
@@ -51,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -60,13 +96,17 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,22 +129,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -115,7 +155,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>8.5732095000000008</v>
+        <v>8.5397587999999995</v>
       </c>
       <c r="D2" s="0">
         <v>79</v>
@@ -135,7 +175,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>8.8879421000000001</v>
+        <v>8.9008494000000002</v>
       </c>
       <c r="D3" s="0">
         <v>48</v>
@@ -155,16 +195,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>8.9830120999999998</v>
+        <v>9.0904284999999998</v>
       </c>
       <c r="D4" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="0">
         <v>1</v>
       </c>
       <c r="F4" s="0">
-        <v>0.095069999999999766</v>
+        <v>0.18957909999999956</v>
       </c>
     </row>
     <row r="5">
@@ -175,10 +215,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="0">
-        <v>9.2630014000000003</v>
+        <v>9.2148599999999998</v>
       </c>
       <c r="D5" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -195,16 +235,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="0">
-        <v>9.3749359000000005</v>
+        <v>9.3095271999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E6" s="0">
         <v>1</v>
       </c>
       <c r="F6" s="0">
-        <v>0.11193450000000027</v>
+        <v>0.094667199999999951</v>
       </c>
     </row>
     <row r="7">
@@ -215,10 +255,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="0">
-        <v>9.6753433999999991</v>
+        <v>9.4359836999999995</v>
       </c>
       <c r="D7" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -235,16 +275,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="0">
-        <v>9.8010254999999997</v>
+        <v>9.5147990999999994</v>
       </c>
       <c r="D8" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E8" s="0">
         <v>1</v>
       </c>
       <c r="F8" s="0">
-        <v>0.12568210000000057</v>
+        <v>0.078815399999999869</v>
       </c>
     </row>
     <row r="9">
@@ -255,10 +295,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="0">
-        <v>10.0861792</v>
+        <v>9.624333</v>
       </c>
       <c r="D9" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -275,16 +315,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="0">
-        <v>10.2117121</v>
+        <v>9.7034938999999998</v>
       </c>
       <c r="D10" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E10" s="0">
         <v>1</v>
       </c>
       <c r="F10" s="0">
-        <v>0.12553289999999961</v>
+        <v>0.079160899999999756</v>
       </c>
     </row>
     <row r="11">
@@ -295,10 +335,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="0">
-        <v>10.756974899999999</v>
+        <v>9.7977599000000009</v>
       </c>
       <c r="D11" s="0">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -315,16 +355,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="0">
-        <v>11.104290900000001</v>
+        <v>9.8925426999999999</v>
       </c>
       <c r="D12" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E12" s="0">
         <v>1</v>
       </c>
       <c r="F12" s="0">
-        <v>0.34731600000000107</v>
+        <v>0.094782799999999057</v>
       </c>
     </row>
     <row r="13">
@@ -335,10 +375,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="0">
-        <v>11.4339377</v>
+        <v>9.9559841000000002</v>
       </c>
       <c r="D13" s="0">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E13" s="0">
         <v>0</v>
@@ -355,16 +395,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="0">
-        <v>11.5452111</v>
+        <v>10.0501418</v>
       </c>
       <c r="D14" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E14" s="0">
         <v>1</v>
       </c>
       <c r="F14" s="0">
-        <v>0.11127339999999997</v>
+        <v>0.094157700000000233</v>
       </c>
     </row>
     <row r="15">
@@ -375,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="0">
-        <v>11.845011599999999</v>
+        <v>10.112797</v>
       </c>
       <c r="D15" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -395,16 +435,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="0">
-        <v>11.924034799999999</v>
+        <v>10.191588899999999</v>
       </c>
       <c r="D16" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E16" s="0">
         <v>1</v>
       </c>
       <c r="F16" s="0">
-        <v>0.07902319999999996</v>
+        <v>0.078791899999998805</v>
       </c>
     </row>
     <row r="17">
@@ -415,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="0">
-        <v>12.2562395</v>
+        <v>10.3171152</v>
       </c>
       <c r="D17" s="0">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -435,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="0">
-        <v>12.36619</v>
+        <v>10.4438072</v>
       </c>
       <c r="D18" s="0">
         <v>77</v>
@@ -444,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="0">
-        <v>0.10995050000000006</v>
+        <v>0.12669200000000025</v>
       </c>
     </row>
     <row r="19">
@@ -455,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="0">
-        <v>12.66461</v>
+        <v>10.5547784</v>
       </c>
       <c r="D19" s="0">
         <v>50</v>
@@ -475,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="0">
-        <v>12.8200751</v>
+        <v>10.681473499999999</v>
       </c>
       <c r="D20" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="0">
         <v>1</v>
       </c>
       <c r="F20" s="0">
-        <v>0.15546510000000069</v>
+        <v>0.12669509999999917</v>
       </c>
     </row>
     <row r="21">
@@ -495,10 +535,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="0">
-        <v>12.850922300000001</v>
+        <v>10.8069823</v>
       </c>
       <c r="D21" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -509,36 +549,36 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0">
-        <v>0</v>
+        <v>10.917701599999999</v>
       </c>
       <c r="D22" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="0">
-        <v>0</v>
+        <v>0.11071929999999952</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0">
-        <v>0</v>
+        <v>11.0275046</v>
       </c>
       <c r="D23" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E23" s="0">
         <v>0</v>
@@ -549,36 +589,36 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="0">
-        <v>0</v>
+        <v>11.138036400000001</v>
       </c>
       <c r="D24" s="0">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E24" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0">
-        <v>0</v>
+        <v>0.1105318000000004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="0">
-        <v>0</v>
+        <v>11.5006535</v>
       </c>
       <c r="D25" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
@@ -589,36 +629,36 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>11.5326285</v>
       </c>
       <c r="D26" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="0">
-        <v>0</v>
+        <v>0.031974999999999199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>11.6889731</v>
       </c>
       <c r="D27" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -629,36 +669,36 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>11.7518729</v>
       </c>
       <c r="D28" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="0">
-        <v>0</v>
+        <v>0.062899800000000283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>11.830545900000001</v>
       </c>
       <c r="D29" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -669,36 +709,36 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>11.9562101</v>
       </c>
       <c r="D30" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="0">
-        <v>0</v>
+        <v>0.12566419999999923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>12.035809</v>
       </c>
       <c r="D31" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -709,36 +749,36 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="0">
-        <v>0</v>
+        <v>12.1297272</v>
       </c>
       <c r="D32" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>0.093918199999999175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>12.1929309</v>
       </c>
       <c r="D33" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E33" s="0">
         <v>0</v>
@@ -749,22 +789,22 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>12.3191202</v>
       </c>
       <c r="D34" s="0">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E34" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="0">
-        <v>0</v>
+        <v>0.12618930000000006</v>
       </c>
     </row>
     <row r="35">
@@ -772,16 +812,16 @@
         <v>1</v>
       </c>
       <c r="B35" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="0">
-        <v>24.472245699999998</v>
+        <v>12.445105399999999</v>
       </c>
       <c r="D35" s="0">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0">
         <v>0</v>
@@ -792,19 +832,19 @@
         <v>1</v>
       </c>
       <c r="B36" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="0">
-        <v>25.056064599999999</v>
+        <v>13.6130339</v>
       </c>
       <c r="D36" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E36" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="0">
-        <v>0</v>
+        <v>1.1679285000000004</v>
       </c>
     </row>
     <row r="37">
@@ -812,19 +852,19 @@
         <v>1</v>
       </c>
       <c r="B37" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="0">
-        <v>25.167424199999999</v>
+        <v>13.6766174</v>
       </c>
       <c r="D37" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>0.11135960000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -832,19 +872,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="0">
-        <v>25.3860265</v>
+        <v>13.7076464</v>
       </c>
       <c r="D38" s="0">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E38" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="0">
-        <v>0</v>
+        <v>0.031029000000000195</v>
       </c>
     </row>
     <row r="39">
@@ -852,19 +892,19 @@
         <v>1</v>
       </c>
       <c r="B39" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="0">
-        <v>25.4331964</v>
+        <v>13.723506</v>
       </c>
       <c r="D39" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="0">
-        <v>0.047169900000000098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -875,16 +915,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="0">
-        <v>25.6841422</v>
+        <v>26.305769399999999</v>
       </c>
       <c r="D40" s="0">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="0">
-        <v>0</v>
+        <v>-13.723506</v>
       </c>
     </row>
     <row r="41">
@@ -895,16 +935,16 @@
         <v>2</v>
       </c>
       <c r="C41" s="0">
-        <v>25.733065799999999</v>
+        <v>27.312714499999998</v>
       </c>
       <c r="D41" s="0">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0">
-        <v>0.048923599999998402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -915,16 +955,16 @@
         <v>2</v>
       </c>
       <c r="C42" s="0">
-        <v>25.9371081</v>
+        <v>27.375317599999999</v>
       </c>
       <c r="D42" s="0">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E42" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="0">
-        <v>0</v>
+        <v>0.062603100000000467</v>
       </c>
     </row>
     <row r="43">
@@ -935,16 +975,16 @@
         <v>2</v>
       </c>
       <c r="C43" s="0">
-        <v>26.095025100000001</v>
+        <v>27.453631699999999</v>
       </c>
       <c r="D43" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
-        <v>0.1579170000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -955,16 +995,16 @@
         <v>2</v>
       </c>
       <c r="C44" s="0">
-        <v>26.395195999999999</v>
+        <v>27.564834099999999</v>
       </c>
       <c r="D44" s="0">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="0">
-        <v>0</v>
+        <v>0.11120239999999981</v>
       </c>
     </row>
     <row r="45">
@@ -975,16 +1015,16 @@
         <v>2</v>
       </c>
       <c r="C45" s="0">
-        <v>26.4882764</v>
+        <v>27.610635800000001</v>
       </c>
       <c r="D45" s="0">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>0.093080400000001617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -995,16 +1035,16 @@
         <v>2</v>
       </c>
       <c r="C46" s="0">
-        <v>27.115920599999999</v>
+        <v>27.721904899999998</v>
       </c>
       <c r="D46" s="0">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="0">
-        <v>0</v>
+        <v>0.11126909999999768</v>
       </c>
     </row>
     <row r="47">
@@ -1015,16 +1055,16 @@
         <v>2</v>
       </c>
       <c r="C47" s="0">
-        <v>27.603456399999999</v>
+        <v>27.990388100000001</v>
       </c>
       <c r="D47" s="0">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0.48753579999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1035,16 +1075,16 @@
         <v>2</v>
       </c>
       <c r="C48" s="0">
-        <v>27.633990499999999</v>
+        <v>28.101248999999999</v>
       </c>
       <c r="D48" s="0">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="0">
-        <v>0</v>
+        <v>0.11086089999999871</v>
       </c>
     </row>
     <row r="49">
@@ -1055,16 +1095,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>28.1477833</v>
       </c>
       <c r="D49" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>-27.633990499999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1075,16 +1115,16 @@
         <v>2</v>
       </c>
       <c r="C50" s="0">
-        <v>27.899404400000002</v>
+        <v>0</v>
       </c>
       <c r="D50" s="0">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="0">
-        <v>0</v>
+        <v>-28.1477833</v>
       </c>
     </row>
     <row r="51">
@@ -1095,16 +1135,16 @@
         <v>2</v>
       </c>
       <c r="C51" s="0">
-        <v>28.025241900000001</v>
+        <v>28.163738899999998</v>
       </c>
       <c r="D51" s="0">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0.12583749999999938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1115,16 +1155,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="0">
-        <v>28.277231400000002</v>
+        <v>28.2736333</v>
       </c>
       <c r="D52" s="0">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E52" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="0">
-        <v>0</v>
+        <v>0.10989440000000172</v>
       </c>
     </row>
     <row r="53">
@@ -1135,16 +1175,16 @@
         <v>2</v>
       </c>
       <c r="C53" s="0">
-        <v>28.293431099999999</v>
+        <v>28.3368954</v>
       </c>
       <c r="D53" s="0">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>0.016199699999997819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1155,16 +1195,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="0">
-        <v>28.574873400000001</v>
+        <v>28.415651</v>
       </c>
       <c r="D54" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E54" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="0">
-        <v>0</v>
+        <v>0.078755600000000925</v>
       </c>
     </row>
     <row r="55">
@@ -1175,16 +1215,16 @@
         <v>2</v>
       </c>
       <c r="C55" s="0">
-        <v>28.716222599999998</v>
+        <v>28.825749600000002</v>
       </c>
       <c r="D55" s="0">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0.14134919999999696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1195,16 +1235,16 @@
         <v>2</v>
       </c>
       <c r="C56" s="0">
-        <v>29.015432100000002</v>
+        <v>28.9046874</v>
       </c>
       <c r="D56" s="0">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="0">
-        <v>0</v>
+        <v>0.078937799999998504</v>
       </c>
     </row>
     <row r="57">
@@ -1215,16 +1255,16 @@
         <v>2</v>
       </c>
       <c r="C57" s="0">
-        <v>29.235381700000001</v>
+        <v>28.919504400000001</v>
       </c>
       <c r="D57" s="0">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>0.21994959999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1235,16 +1275,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="0">
-        <v>29.3937594</v>
+        <v>28.9360994</v>
       </c>
       <c r="D58" s="0">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E58" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="0">
-        <v>0</v>
+        <v>0.016594999999998805</v>
       </c>
     </row>
     <row r="59">
@@ -1255,16 +1295,16 @@
         <v>2</v>
       </c>
       <c r="C59" s="0">
-        <v>29.550218600000001</v>
+        <v>28.966928100000001</v>
       </c>
       <c r="D59" s="0">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
-        <v>0.15645920000000046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1275,16 +1315,16 @@
         <v>2</v>
       </c>
       <c r="C60" s="0">
-        <v>29.850044199999999</v>
+        <v>29.014903799999999</v>
       </c>
       <c r="D60" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="0">
-        <v>0</v>
+        <v>0.047975699999998511</v>
       </c>
     </row>
     <row r="61">
@@ -1295,16 +1335,16 @@
         <v>2</v>
       </c>
       <c r="C61" s="0">
-        <v>29.960064200000001</v>
+        <v>29.047014300000001</v>
       </c>
       <c r="D61" s="0">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>0.11002000000000223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1312,19 +1352,19 @@
         <v>1</v>
       </c>
       <c r="B62" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" s="0">
-        <v>30.462030299999999</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="0">
-        <v>0</v>
+        <v>-29.047014300000001</v>
       </c>
     </row>
     <row r="63">
@@ -1332,19 +1372,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" s="0">
-        <v>31.1084338</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>0.64640350000000169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1352,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="B64" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="0">
-        <v>31.406198400000001</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -1372,19 +1412,19 @@
         <v>1</v>
       </c>
       <c r="B65" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="0">
-        <v>31.533171899999999</v>
+        <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0.1269734999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1392,13 +1432,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66" s="0">
-        <v>40.511878500000002</v>
+        <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0">
         <v>1</v>
@@ -1412,19 +1452,19 @@
         <v>1</v>
       </c>
       <c r="B67" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67" s="0">
-        <v>40.810703599999997</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0.14326870000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1432,19 +1472,19 @@
         <v>1</v>
       </c>
       <c r="B68" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68" s="0">
-        <v>40.874906000000003</v>
+        <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E68" s="0">
         <v>1</v>
       </c>
       <c r="F68" s="0">
-        <v>0.064202400000006321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1452,13 +1492,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69" s="0">
-        <v>41.030747900000001</v>
+        <v>0</v>
       </c>
       <c r="D69" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E69" s="0">
         <v>0</v>
@@ -1472,19 +1512,19 @@
         <v>1</v>
       </c>
       <c r="B70" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" s="0">
-        <v>41.578767499999998</v>
+        <v>0</v>
       </c>
       <c r="D70" s="0">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E70" s="0">
         <v>1</v>
       </c>
       <c r="F70" s="0">
-        <v>0.54801959999999639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1492,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" s="0">
-        <v>41.7959405</v>
+        <v>0</v>
       </c>
       <c r="D71" s="0">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E71" s="0">
         <v>0</v>
@@ -1512,19 +1552,19 @@
         <v>1</v>
       </c>
       <c r="B72" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" s="0">
-        <v>41.859440599999999</v>
+        <v>0</v>
       </c>
       <c r="D72" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E72" s="0">
         <v>1</v>
       </c>
       <c r="F72" s="0">
-        <v>0.063500099999998838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1532,13 +1572,13 @@
         <v>1</v>
       </c>
       <c r="B73" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" s="0">
-        <v>42.0012325</v>
+        <v>0</v>
       </c>
       <c r="D73" s="0">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0">
         <v>0</v>
@@ -1552,19 +1592,19 @@
         <v>1</v>
       </c>
       <c r="B74" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="0">
-        <v>42.19153</v>
+        <v>0</v>
       </c>
       <c r="D74" s="0">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E74" s="0">
         <v>1</v>
       </c>
       <c r="F74" s="0">
-        <v>0.19029749999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1572,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="0">
-        <v>42.6466566</v>
+        <v>0</v>
       </c>
       <c r="D75" s="0">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E75" s="0">
         <v>0</v>
@@ -1592,19 +1632,19 @@
         <v>1</v>
       </c>
       <c r="B76" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="0">
-        <v>42.915505000000003</v>
+        <v>0</v>
       </c>
       <c r="D76" s="0">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E76" s="0">
         <v>1</v>
       </c>
       <c r="F76" s="0">
-        <v>0.2688484000000031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1612,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="0">
-        <v>43.120928599999999</v>
+        <v>0</v>
       </c>
       <c r="D77" s="0">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E77" s="0">
         <v>0</v>
@@ -1632,19 +1672,19 @@
         <v>1</v>
       </c>
       <c r="B78" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="0">
-        <v>43.262317600000003</v>
+        <v>0</v>
       </c>
       <c r="D78" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E78" s="0">
         <v>1</v>
       </c>
       <c r="F78" s="0">
-        <v>0.14138900000000376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1652,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="0">
-        <v>43.451942600000002</v>
+        <v>0</v>
       </c>
       <c r="D79" s="0">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E79" s="0">
         <v>0</v>
@@ -1672,19 +1712,19 @@
         <v>1</v>
       </c>
       <c r="B80" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="0">
-        <v>43.6106579</v>
+        <v>0</v>
       </c>
       <c r="D80" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E80" s="0">
         <v>1</v>
       </c>
       <c r="F80" s="0">
-        <v>0.15871529999999723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1692,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="0">
-        <v>44.069590499999997</v>
+        <v>0</v>
       </c>
       <c r="D81" s="0">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E81" s="0">
         <v>0</v>
@@ -1715,16 +1755,16 @@
         <v>3</v>
       </c>
       <c r="C82" s="0">
-        <v>44.258810099999998</v>
+        <v>41.388146200000001</v>
       </c>
       <c r="D82" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E82" s="0">
         <v>1</v>
       </c>
       <c r="F82" s="0">
-        <v>0.18921960000000126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1735,10 +1775,10 @@
         <v>3</v>
       </c>
       <c r="C83" s="0">
-        <v>44.541803000000002</v>
+        <v>41.482610899999997</v>
       </c>
       <c r="D83" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E83" s="0">
         <v>0</v>
@@ -1755,16 +1795,16 @@
         <v>3</v>
       </c>
       <c r="C84" s="0">
-        <v>44.604932300000002</v>
+        <v>41.640171199999997</v>
       </c>
       <c r="D84" s="0">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E84" s="0">
         <v>1</v>
       </c>
       <c r="F84" s="0">
-        <v>0.063129299999999944</v>
+        <v>0.1575603000000001</v>
       </c>
     </row>
     <row r="85">
@@ -1775,10 +1815,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="0">
-        <v>44.823717100000003</v>
+        <v>41.702821700000001</v>
       </c>
       <c r="D85" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E85" s="0">
         <v>0</v>
@@ -1795,16 +1835,16 @@
         <v>3</v>
       </c>
       <c r="C86" s="0">
-        <v>44.886419400000001</v>
+        <v>41.734831999999997</v>
       </c>
       <c r="D86" s="0">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E86" s="0">
         <v>1</v>
       </c>
       <c r="F86" s="0">
-        <v>0.06270229999999799</v>
+        <v>0.03201029999999605</v>
       </c>
     </row>
     <row r="87">
@@ -1815,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="0">
-        <v>45.136715700000003</v>
+        <v>41.829385100000003</v>
       </c>
       <c r="D87" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E87" s="0">
         <v>0</v>
@@ -1835,16 +1875,16 @@
         <v>3</v>
       </c>
       <c r="C88" s="0">
-        <v>45.279952600000001</v>
+        <v>41.955269800000003</v>
       </c>
       <c r="D88" s="0">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E88" s="0">
         <v>1</v>
       </c>
       <c r="F88" s="0">
-        <v>0.143236899999998</v>
+        <v>0.12588470000000029</v>
       </c>
     </row>
     <row r="89">
@@ -1855,10 +1895,10 @@
         <v>3</v>
       </c>
       <c r="C89" s="0">
-        <v>45.5175336</v>
+        <v>42.018627199999997</v>
       </c>
       <c r="D89" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E89" s="0">
         <v>0</v>
@@ -1875,16 +1915,16 @@
         <v>3</v>
       </c>
       <c r="C90" s="0">
-        <v>45.657877999999997</v>
+        <v>42.083473099999999</v>
       </c>
       <c r="D90" s="0">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E90" s="0">
         <v>1</v>
       </c>
       <c r="F90" s="0">
-        <v>0.14034439999999648</v>
+        <v>0.064845900000001677</v>
       </c>
     </row>
     <row r="91">
@@ -1895,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="0">
-        <v>45.846597099999997</v>
+        <v>42.175514399999997</v>
       </c>
       <c r="D91" s="0">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E91" s="0">
         <v>0</v>
@@ -1912,19 +1952,19 @@
         <v>1</v>
       </c>
       <c r="B92" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="0">
-        <v>57.2549718</v>
+        <v>42.332264500000001</v>
       </c>
       <c r="D92" s="0">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E92" s="0">
         <v>1</v>
       </c>
       <c r="F92" s="0">
-        <v>0.15821310000000466</v>
+        <v>0.15675010000000356</v>
       </c>
     </row>
     <row r="93">
@@ -1932,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="0">
-        <v>57.459926899999999</v>
+        <v>42.364097999999998</v>
       </c>
       <c r="D93" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E93" s="0">
         <v>0</v>
@@ -1952,19 +1992,19 @@
         <v>1</v>
       </c>
       <c r="B94" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="0">
-        <v>0</v>
+        <v>42.444277100000001</v>
       </c>
       <c r="D94" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E94" s="0">
         <v>1</v>
       </c>
       <c r="F94" s="0">
-        <v>-57.459926899999999</v>
+        <v>0.080179100000002279</v>
       </c>
     </row>
     <row r="95">
@@ -1972,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="0">
-        <v>57.522281800000002</v>
+        <v>42.521960800000002</v>
       </c>
       <c r="D95" s="0">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E95" s="0">
         <v>0</v>
@@ -1992,19 +2032,19 @@
         <v>1</v>
       </c>
       <c r="B96" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" s="0">
-        <v>57.570532200000002</v>
+        <v>42.664503799999999</v>
       </c>
       <c r="D96" s="0">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E96" s="0">
         <v>1</v>
       </c>
       <c r="F96" s="0">
-        <v>0.048250400000000582</v>
+        <v>0.14254299999999631</v>
       </c>
     </row>
     <row r="97">
@@ -2012,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" s="0">
-        <v>57.727778299999997</v>
+        <v>42.743106900000001</v>
       </c>
       <c r="D97" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E97" s="0">
         <v>0</v>
@@ -2032,19 +2072,19 @@
         <v>1</v>
       </c>
       <c r="B98" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" s="0">
-        <v>57.9508218</v>
+        <v>42.789682900000003</v>
       </c>
       <c r="D98" s="0">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E98" s="0">
         <v>1</v>
       </c>
       <c r="F98" s="0">
-        <v>0.22304350000000284</v>
+        <v>0.046576000000001727</v>
       </c>
     </row>
     <row r="99">
@@ -2052,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" s="0">
-        <v>58.4550196</v>
+        <v>42.852505899999997</v>
       </c>
       <c r="D99" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E99" s="0">
         <v>0</v>
@@ -2072,19 +2112,19 @@
         <v>1</v>
       </c>
       <c r="B100" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="0">
-        <v>59.419234000000003</v>
+        <v>43.027392999999996</v>
       </c>
       <c r="D100" s="0">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E100" s="0">
         <v>1</v>
       </c>
       <c r="F100" s="0">
-        <v>0.96421440000000302</v>
+        <v>0.17488709999999941</v>
       </c>
     </row>
     <row r="101">
@@ -2092,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" s="0">
-        <v>59.719321899999997</v>
+        <v>43.090395000000001</v>
       </c>
       <c r="D101" s="0">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E101" s="0">
         <v>0</v>
@@ -2112,19 +2152,19 @@
         <v>1</v>
       </c>
       <c r="B102" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="0">
-        <v>59.766024100000003</v>
+        <v>43.246867899999998</v>
       </c>
       <c r="D102" s="0">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E102" s="0">
         <v>1</v>
       </c>
       <c r="F102" s="0">
-        <v>0.046702200000005689</v>
+        <v>0.15647289999999714</v>
       </c>
     </row>
     <row r="103">
@@ -2132,13 +2172,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="0">
-        <v>59.940193000000001</v>
+        <v>43.357831300000001</v>
       </c>
       <c r="D103" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E103" s="0">
         <v>0</v>
@@ -2152,19 +2192,19 @@
         <v>1</v>
       </c>
       <c r="B104" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="0">
-        <v>60.143228700000002</v>
+        <v>43.420946999999998</v>
       </c>
       <c r="D104" s="0">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E104" s="0">
         <v>1</v>
       </c>
       <c r="F104" s="0">
-        <v>0.20303570000000093</v>
+        <v>0.063115699999997332</v>
       </c>
     </row>
     <row r="105">
@@ -2172,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="0">
-        <v>60.650251099999998</v>
+        <v>43.452725600000001</v>
       </c>
       <c r="D105" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E105" s="0">
         <v>0</v>
@@ -2192,19 +2232,19 @@
         <v>1</v>
       </c>
       <c r="B106" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="0">
-        <v>60.822735199999997</v>
+        <v>43.625347300000001</v>
       </c>
       <c r="D106" s="0">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E106" s="0">
         <v>1</v>
       </c>
       <c r="F106" s="0">
-        <v>0.17248409999999836</v>
+        <v>0.17262170000000054</v>
       </c>
     </row>
     <row r="107">
@@ -2212,13 +2252,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="0">
-        <v>61.133879499999999</v>
+        <v>43.752359499999997</v>
       </c>
       <c r="D107" s="0">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E107" s="0">
         <v>0</v>
@@ -2232,19 +2272,19 @@
         <v>1</v>
       </c>
       <c r="B108" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="0">
-        <v>61.198914600000002</v>
+        <v>43.8475696</v>
       </c>
       <c r="D108" s="0">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E108" s="0">
         <v>1</v>
       </c>
       <c r="F108" s="0">
-        <v>0.065035100000002899</v>
+        <v>0.09521010000000274</v>
       </c>
     </row>
     <row r="109">
@@ -2252,13 +2292,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="0">
-        <v>61.370029000000002</v>
+        <v>43.879338599999997</v>
       </c>
       <c r="D109" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E109" s="0">
         <v>0</v>
@@ -2272,19 +2312,19 @@
         <v>1</v>
       </c>
       <c r="B110" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="0">
-        <v>0</v>
+        <v>43.9581613</v>
       </c>
       <c r="D110" s="0">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E110" s="0">
         <v>1</v>
       </c>
       <c r="F110" s="0">
-        <v>-61.370029000000002</v>
+        <v>0.078822700000003465</v>
       </c>
     </row>
     <row r="111">
@@ -2292,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="0">
-        <v>61.385831799999998</v>
+        <v>44.067750500000002</v>
       </c>
       <c r="D111" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E111" s="0">
         <v>0</v>
@@ -2312,19 +2352,19 @@
         <v>1</v>
       </c>
       <c r="B112" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" s="0">
-        <v>61.576161200000001</v>
+        <v>44.1625291</v>
       </c>
       <c r="D112" s="0">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E112" s="0">
         <v>1</v>
       </c>
       <c r="F112" s="0">
-        <v>0.19032940000000309</v>
+        <v>0.094778599999997937</v>
       </c>
     </row>
     <row r="113">
@@ -2332,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" s="0">
-        <v>62.315327000000003</v>
+        <v>44.2251476</v>
       </c>
       <c r="D113" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E113" s="0">
         <v>0</v>
@@ -2352,19 +2392,19 @@
         <v>1</v>
       </c>
       <c r="B114" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="0">
-        <v>62.472477499999997</v>
+        <v>44.273071899999998</v>
       </c>
       <c r="D114" s="0">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E114" s="0">
         <v>1</v>
       </c>
       <c r="F114" s="0">
-        <v>0.15715049999999309</v>
+        <v>0.047924299999998254</v>
       </c>
     </row>
     <row r="115">
@@ -2372,13 +2412,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="0">
-        <v>62.772724400000001</v>
+        <v>44.351711999999999</v>
       </c>
       <c r="D115" s="0">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E115" s="0">
         <v>0</v>
@@ -2392,19 +2432,19 @@
         <v>1</v>
       </c>
       <c r="B116" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="0">
-        <v>62.867392000000002</v>
+        <v>0</v>
       </c>
       <c r="D116" s="0">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E116" s="0">
         <v>1</v>
       </c>
       <c r="F116" s="0">
-        <v>0.094667600000001073</v>
+        <v>-44.351711999999999</v>
       </c>
     </row>
     <row r="117">
@@ -2412,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" s="0">
-        <v>63.200067099999998</v>
+        <v>44.351924199999999</v>
       </c>
       <c r="D117" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E117" s="0">
         <v>0</v>
@@ -2432,19 +2472,19 @@
         <v>1</v>
       </c>
       <c r="B118" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" s="0">
-        <v>63.216267899999998</v>
+        <v>44.5561796</v>
       </c>
       <c r="D118" s="0">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E118" s="0">
         <v>1</v>
       </c>
       <c r="F118" s="0">
-        <v>0.016200800000000015</v>
+        <v>0.20425540000000098</v>
       </c>
     </row>
     <row r="119">
@@ -2452,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C119" s="0">
-        <v>63.546729499999998</v>
+        <v>44.619604000000002</v>
       </c>
       <c r="D119" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E119" s="0">
         <v>0</v>
@@ -2472,19 +2512,19 @@
         <v>1</v>
       </c>
       <c r="B120" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="0">
-        <v>63.6556213</v>
+        <v>44.7136371</v>
       </c>
       <c r="D120" s="0">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E120" s="0">
         <v>1</v>
       </c>
       <c r="F120" s="0">
-        <v>0.10889180000000209</v>
+        <v>0.094033099999997205</v>
       </c>
     </row>
     <row r="121">
@@ -2492,13 +2532,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C121" s="0">
-        <v>63.953351699999999</v>
+        <v>44.744432099999997</v>
       </c>
       <c r="D121" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E121" s="0">
         <v>0</v>
